--- a/tests/data/desired/duplicatelayoutreport.xlsx
+++ b/tests/data/desired/duplicatelayoutreport.xlsx
@@ -9,17 +9,23 @@
     <sheet name="summary" r:id="rId3" sheetId="1"/>
     <sheet name="interlaced" r:id="rId4" sheetId="2"/>
     <sheet name="duplicates" r:id="rId5" sheetId="3"/>
+    <sheet name="summaryi" r:id="rId6" sheetId="4"/>
+    <sheet name="interlacedi" r:id="rId7" sheetId="5"/>
+    <sheet name="duplicatesi" r:id="rId8" sheetId="6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">summary!$A$1:$C$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">interlaced!$A$1:$P$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="true">duplicates!$A$1:$I$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="true">summaryi!$A$1:$C$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="true">interlacedi!$A$1:$P$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="true">duplicatesi!$A$1:$I$19</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="53">
   <si>
     <t>Summary of Rows</t>
   </si>
@@ -185,7 +191,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -198,16 +204,71 @@
       <sz val="11.0"/>
       <b val="true"/>
       <color indexed="8"/>
-      <u val="none"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color rgb="D02020"/>
-      <u val="none"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,15 +276,12 @@
       <patternFill patternType="darkGray"/>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
+      <patternFill>
         <fgColor indexed="55"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill>
+      <patternFill patternType="solid">
         <fgColor indexed="55"/>
       </patternFill>
     </fill>
@@ -233,17 +291,17 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="none">
         <fgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill>
         <fgColor indexed="22"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill>
+      <patternFill patternType="solid">
         <fgColor indexed="22"/>
       </patternFill>
     </fill>
@@ -260,12 +318,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -295,145 +361,145 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>40</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
       </c>
-      <c r="C2" t="n" s="4">
+      <c r="C2" t="n" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="5">
         <v>41</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
       </c>
-      <c r="C3" t="n" s="4">
+      <c r="C3" t="n" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="3">
+      <c r="A4" t="s" s="5">
         <v>42</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
       </c>
-      <c r="C4" t="n" s="4">
+      <c r="C4" t="n" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="3">
+      <c r="A5" t="s" s="5">
         <v>43</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
       </c>
-      <c r="C5" t="n" s="4">
+      <c r="C5" t="n" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="3">
+      <c r="A6" t="s" s="5">
         <v>44</v>
       </c>
       <c r="B6" t="n">
         <v>1.0</v>
       </c>
-      <c r="C6" t="n" s="4">
+      <c r="C6" t="n" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="3">
+      <c r="A7" t="s" s="5">
         <v>45</v>
       </c>
       <c r="B7" t="n">
         <v>10.0</v>
       </c>
-      <c r="C7" t="n" s="4">
+      <c r="C7" t="n" s="6">
         <v>5.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="3">
+      <c r="A8" t="s" s="5">
         <v>46</v>
       </c>
       <c r="B8" t="n">
         <v>8.0</v>
       </c>
-      <c r="C8" t="n" s="4">
+      <c r="C8" t="n" s="6">
         <v>0.8</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="3">
+      <c r="A9" t="s" s="5">
         <v>47</v>
       </c>
       <c r="B9" t="n">
         <v>9.0</v>
       </c>
-      <c r="C9" t="n" s="4">
+      <c r="C9" t="n" s="6">
         <v>0.9</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="3">
+      <c r="A10" t="s" s="5">
         <v>48</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
       </c>
-      <c r="C10" t="n" s="4">
+      <c r="C10" t="n" s="6">
         <v>0.1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="3">
+      <c r="A11" t="s" s="5">
         <v>49</v>
       </c>
       <c r="B11" t="n">
         <v>11.0</v>
       </c>
-      <c r="C11" t="n" s="4">
+      <c r="C11" t="n" s="6">
         <v>5.5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="3">
+      <c r="A12" t="s" s="5">
         <v>50</v>
       </c>
       <c r="B12" t="n">
         <v>10.0</v>
       </c>
-      <c r="C12" t="n" s="4">
+      <c r="C12" t="n" s="6">
         <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="3">
+      <c r="A13" t="s" s="5">
         <v>51</v>
       </c>
       <c r="B13" t="n">
         <v>11.0</v>
       </c>
-      <c r="C13" t="n" s="4">
+      <c r="C13" t="n" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="3">
+      <c r="A14" t="s" s="5">
         <v>52</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
       </c>
-      <c r="C14" t="n" s="4">
+      <c r="C14" t="n" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -470,102 +536,102 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="H1" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="J1" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="K1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="N1" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="O1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="P1" t="s" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="2">
+      <c r="A2" t="n" s="4">
         <v>7.0</v>
       </c>
-      <c r="B2" t="n" s="2">
+      <c r="B2" t="n" s="4">
         <v>5.0</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" t="s" s="4">
         <v>37</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" t="s" s="4">
         <v>37</v>
       </c>
-      <c r="G2" t="n" s="2">
+      <c r="G2" t="n" s="4">
         <v>15.0</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="H2" t="s" s="4">
         <v>37</v>
       </c>
-      <c r="I2" t="n" s="2">
+      <c r="I2" t="n" s="4">
         <v>5.0</v>
       </c>
-      <c r="J2" t="s" s="2">
+      <c r="J2" t="s" s="4">
         <v>37</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="K2" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="L2" t="s" s="4">
         <v>37</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="M2" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="N2" t="s" s="2">
+      <c r="N2" t="s" s="4">
         <v>37</v>
       </c>
-      <c r="O2" t="n" s="2">
+      <c r="O2" t="n" s="4">
         <v>15.0</v>
       </c>
-      <c r="P2" t="s" s="2">
+      <c r="P2" t="s" s="4">
         <v>37</v>
       </c>
     </row>
@@ -645,31 +711,962 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="H1" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="I1" t="s" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="n">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="n">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="n">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" t="n">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" t="n">
+        <v>88.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" t="n">
+        <v>77.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I19"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="39.6328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.32421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.4609375" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="7">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="7">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="11">
+        <v>40</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2" t="n" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="11">
+        <v>41</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="n" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="n" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="11">
+        <v>43</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5" t="n" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C7" t="n" s="12">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="11">
+        <v>46</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C8" t="n" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="11">
+        <v>47</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C9" t="n" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="11">
+        <v>48</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C10" t="n" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C11" t="n" s="12">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C12" t="n" s="12">
+        <v>0.9090909090909091</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="11">
+        <v>51</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C13" t="n" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="11">
+        <v>52</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C14" t="n" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C14"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.03515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.01171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="16.48828125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="16.48828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="18.390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="8">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s" s="8">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s" s="8">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B2" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="C2" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="G2" t="n" s="10">
+        <v>15.0</v>
+      </c>
+      <c r="H2" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="I2" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="J2" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="O2" t="n" s="10">
+        <v>15.0</v>
+      </c>
+      <c r="P2" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>77.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:P3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="16.2109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.01171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.62890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="16.1171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="8.9140625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="7.01171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.62890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="8.9140625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s" s="9">
         <v>16</v>
       </c>
     </row>
